--- a/ML_Algorithms/AlreadyReadBooks.xlsx
+++ b/ML_Algorithms/AlreadyReadBooks.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>testuser</t>
   </si>
   <si>
     <t>testuser2</t>
+  </si>
+  <si>
+    <t>testuser3</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,6 +73,7 @@
   <cols>
     <col min="1" max="1" width="8.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="1.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="1.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -88,19 +92,57 @@
       <c r="E1" t="n" s="0">
         <v>4.0</v>
       </c>
+      <c r="F1" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>3.0</v>
+      <c r="D3" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
